--- a/public/data/lime/lime_table_burundi.xlsx
+++ b/public/data/lime/lime_table_burundi.xlsx
@@ -1582,13 +1582,13 @@
         <v>87</v>
       </c>
       <c r="D2" t="n">
-        <v>6.37</v>
+        <v>5.89</v>
       </c>
       <c r="E2" t="n">
-        <v>5.19</v>
+        <v>4.16</v>
       </c>
       <c r="F2" t="n">
-        <v>3.82</v>
+        <v>2.15</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -1600,13 +1600,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.2</v>
+        <v>4.66</v>
       </c>
       <c r="K2" t="n">
-        <v>3.98</v>
+        <v>2.83</v>
       </c>
       <c r="L2" t="n">
-        <v>2.58</v>
+        <v>0.95</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -1647,16 +1647,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.01</v>
+        <v>1.3</v>
       </c>
       <c r="K3" t="n">
-        <v>0.86</v>
+        <v>0.24</v>
       </c>
       <c r="L3" t="n">
-        <v>0.23</v>
+        <v>0.01</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -1676,13 +1676,13 @@
         <v>89</v>
       </c>
       <c r="D4" t="n">
-        <v>6.42</v>
+        <v>5.98</v>
       </c>
       <c r="E4" t="n">
-        <v>5.62</v>
+        <v>4.69</v>
       </c>
       <c r="F4" t="n">
-        <v>4.69</v>
+        <v>3.18</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -1694,16 +1694,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3.22</v>
+        <v>2.7</v>
       </c>
       <c r="K4" t="n">
-        <v>2.27</v>
+        <v>1.42</v>
       </c>
       <c r="L4" t="n">
-        <v>1.37</v>
+        <v>0.5</v>
       </c>
       <c r="M4" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -1723,13 +1723,13 @@
         <v>90</v>
       </c>
       <c r="D5" t="n">
-        <v>6.08</v>
+        <v>5.62</v>
       </c>
       <c r="E5" t="n">
-        <v>4.9</v>
+        <v>3.91</v>
       </c>
       <c r="F5" t="n">
-        <v>3.52</v>
+        <v>1.96</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -1741,13 +1741,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.08</v>
+        <v>5.57</v>
       </c>
       <c r="K5" t="n">
-        <v>4.92</v>
+        <v>3.81</v>
       </c>
       <c r="L5" t="n">
-        <v>3.55</v>
+        <v>1.75</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -1770,13 +1770,13 @@
         <v>91</v>
       </c>
       <c r="D6" t="n">
-        <v>5.58</v>
+        <v>5.16</v>
       </c>
       <c r="E6" t="n">
-        <v>4.79</v>
+        <v>3.91</v>
       </c>
       <c r="F6" t="n">
-        <v>3.88</v>
+        <v>2.45</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1788,13 +1788,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>3.24</v>
+        <v>2.89</v>
       </c>
       <c r="K6" t="n">
-        <v>2.55</v>
+        <v>1.79</v>
       </c>
       <c r="L6" t="n">
-        <v>1.75</v>
+        <v>0.8</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -1835,13 +1835,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="K7" t="n">
-        <v>0.71</v>
+        <v>0.17</v>
       </c>
       <c r="L7" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -2023,16 +2023,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.48</v>
+        <v>0.33</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1</v>
+        <v>0.07</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -2117,16 +2117,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.69</v>
+        <v>0.31</v>
       </c>
       <c r="K13" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -2164,13 +2164,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1.48</v>
+        <v>1.2</v>
       </c>
       <c r="K14" t="n">
-        <v>0.81</v>
+        <v>0.4</v>
       </c>
       <c r="L14" t="n">
-        <v>0.3</v>
+        <v>0.02</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -2220,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -2267,7 +2267,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>103</v>
       </c>
       <c r="D17" t="n">
-        <v>2.29</v>
+        <v>2.22</v>
       </c>
       <c r="E17" t="n">
-        <v>1.62</v>
+        <v>1.47</v>
       </c>
       <c r="F17" t="n">
-        <v>0.83</v>
+        <v>0.6</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -2305,10 +2305,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.43</v>
+        <v>0.36</v>
       </c>
       <c r="K17" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2352,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.4</v>
+        <v>0.17</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -2446,16 +2446,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="K20" t="n">
-        <v>0.55</v>
+        <v>0.41</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -2475,13 +2475,13 @@
         <v>108</v>
       </c>
       <c r="D21" t="n">
-        <v>3.05</v>
+        <v>2.69</v>
       </c>
       <c r="E21" t="n">
-        <v>2.44</v>
+        <v>1.69</v>
       </c>
       <c r="F21" t="n">
-        <v>1.77</v>
+        <v>0.86</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2493,16 +2493,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>2.2</v>
+        <v>1.76</v>
       </c>
       <c r="K21" t="n">
-        <v>1.23</v>
+        <v>0.57</v>
       </c>
       <c r="L21" t="n">
-        <v>0.52</v>
+        <v>0.07</v>
       </c>
       <c r="M21" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -2522,13 +2522,13 @@
         <v>109</v>
       </c>
       <c r="D22" t="n">
-        <v>3.71</v>
+        <v>3.38</v>
       </c>
       <c r="E22" t="n">
-        <v>2.66</v>
+        <v>1.97</v>
       </c>
       <c r="F22" t="n">
-        <v>1.54</v>
+        <v>0.83</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2540,16 +2540,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>2.75</v>
+        <v>2.43</v>
       </c>
       <c r="K22" t="n">
-        <v>1.76</v>
+        <v>1.1</v>
       </c>
       <c r="L22" t="n">
-        <v>0.7</v>
+        <v>0.24</v>
       </c>
       <c r="M22" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -2569,13 +2569,13 @@
         <v>110</v>
       </c>
       <c r="D23" t="n">
-        <v>3.12</v>
+        <v>2.87</v>
       </c>
       <c r="E23" t="n">
-        <v>2.41</v>
+        <v>1.86</v>
       </c>
       <c r="F23" t="n">
-        <v>1.59</v>
+        <v>0.75</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2587,16 +2587,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>2.03</v>
+        <v>1.74</v>
       </c>
       <c r="K23" t="n">
-        <v>1.46</v>
+        <v>1.03</v>
       </c>
       <c r="L23" t="n">
-        <v>0.94</v>
+        <v>0.42</v>
       </c>
       <c r="M23" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -2616,13 +2616,13 @@
         <v>111</v>
       </c>
       <c r="D24" t="n">
-        <v>3.57</v>
+        <v>3.42</v>
       </c>
       <c r="E24" t="n">
-        <v>2.91</v>
+        <v>2.58</v>
       </c>
       <c r="F24" t="n">
-        <v>2.14</v>
+        <v>1.62</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2634,13 +2634,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="K24" t="n">
-        <v>1.44</v>
+        <v>1.22</v>
       </c>
       <c r="L24" t="n">
-        <v>0.88</v>
+        <v>0.6</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -2681,16 +2681,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>3.36</v>
+        <v>2.63</v>
       </c>
       <c r="K25" t="n">
-        <v>2.63</v>
+        <v>1.05</v>
       </c>
       <c r="L25" t="n">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -2710,13 +2710,13 @@
         <v>112</v>
       </c>
       <c r="D26" t="n">
-        <v>4.81</v>
+        <v>4.44</v>
       </c>
       <c r="E26" t="n">
-        <v>4.03</v>
+        <v>3.24</v>
       </c>
       <c r="F26" t="n">
-        <v>3.12</v>
+        <v>1.9</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2728,13 +2728,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>3.2</v>
+        <v>2.74</v>
       </c>
       <c r="K26" t="n">
-        <v>2.21</v>
+        <v>1.26</v>
       </c>
       <c r="L26" t="n">
-        <v>1.14</v>
+        <v>0.42</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -2757,13 +2757,13 @@
         <v>113</v>
       </c>
       <c r="D27" t="n">
-        <v>3.39</v>
+        <v>3.1</v>
       </c>
       <c r="E27" t="n">
-        <v>2.56</v>
+        <v>1.95</v>
       </c>
       <c r="F27" t="n">
-        <v>1.6</v>
+        <v>0.73</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2804,13 +2804,13 @@
         <v>114</v>
       </c>
       <c r="D28" t="n">
-        <v>3.16</v>
+        <v>2.83</v>
       </c>
       <c r="E28" t="n">
-        <v>2.53</v>
+        <v>1.82</v>
       </c>
       <c r="F28" t="n">
-        <v>1.8</v>
+        <v>0.82</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2822,13 +2822,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>3.03</v>
+        <v>2.66</v>
       </c>
       <c r="K28" t="n">
-        <v>2.21</v>
+        <v>1.52</v>
       </c>
       <c r="L28" t="n">
-        <v>1.42</v>
+        <v>0.55</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -2851,13 +2851,13 @@
         <v>115</v>
       </c>
       <c r="D29" t="n">
-        <v>2.99</v>
+        <v>2.69</v>
       </c>
       <c r="E29" t="n">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="F29" t="n">
-        <v>1.81</v>
+        <v>0.87</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2869,13 +2869,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>2.48</v>
+        <v>2.05</v>
       </c>
       <c r="K29" t="n">
-        <v>1.65</v>
+        <v>0.71</v>
       </c>
       <c r="L29" t="n">
-        <v>0.67</v>
+        <v>0.05</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -2898,13 +2898,13 @@
         <v>116</v>
       </c>
       <c r="D30" t="n">
-        <v>3.87</v>
+        <v>3.59</v>
       </c>
       <c r="E30" t="n">
-        <v>3.15</v>
+        <v>2.56</v>
       </c>
       <c r="F30" t="n">
-        <v>2.31</v>
+        <v>1.39</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2916,13 +2916,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>3.68</v>
+        <v>3.42</v>
       </c>
       <c r="K30" t="n">
-        <v>2.91</v>
+        <v>2.34</v>
       </c>
       <c r="L30" t="n">
-        <v>2</v>
+        <v>1.13</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -2963,16 +2963,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>2.19</v>
+        <v>1.75</v>
       </c>
       <c r="K31" t="n">
-        <v>1.19</v>
+        <v>0.45</v>
       </c>
       <c r="L31" t="n">
-        <v>0.35</v>
+        <v>0.05</v>
       </c>
       <c r="M31" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -2992,13 +2992,13 @@
         <v>118</v>
       </c>
       <c r="D32" t="n">
-        <v>3.85</v>
+        <v>3.61</v>
       </c>
       <c r="E32" t="n">
-        <v>3.03</v>
+        <v>2.5</v>
       </c>
       <c r="F32" t="n">
-        <v>2.09</v>
+        <v>1.32</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3010,13 +3010,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>3.61</v>
+        <v>3.32</v>
       </c>
       <c r="K32" t="n">
-        <v>2.51</v>
+        <v>1.9</v>
       </c>
       <c r="L32" t="n">
-        <v>1.31</v>
+        <v>0.59</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -3039,13 +3039,13 @@
         <v>120</v>
       </c>
       <c r="D33" t="n">
-        <v>3.07</v>
+        <v>2.73</v>
       </c>
       <c r="E33" t="n">
-        <v>2.61</v>
+        <v>1.88</v>
       </c>
       <c r="F33" t="n">
-        <v>2.09</v>
+        <v>1.02</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3057,13 +3057,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>2.55</v>
+        <v>2.16</v>
       </c>
       <c r="K33" t="n">
-        <v>1.87</v>
+        <v>1.1</v>
       </c>
       <c r="L33" t="n">
-        <v>1.18</v>
+        <v>0.34</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -3086,13 +3086,13 @@
         <v>119</v>
       </c>
       <c r="D34" t="n">
-        <v>2.72</v>
+        <v>2.45</v>
       </c>
       <c r="E34" t="n">
-        <v>2.21</v>
+        <v>1.63</v>
       </c>
       <c r="F34" t="n">
-        <v>1.62</v>
+        <v>0.78</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3104,16 +3104,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>2.17</v>
+        <v>1.81</v>
       </c>
       <c r="K34" t="n">
-        <v>1.36</v>
+        <v>0.75</v>
       </c>
       <c r="L34" t="n">
-        <v>0.66</v>
+        <v>0.14</v>
       </c>
       <c r="M34" t="n">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -3133,13 +3133,13 @@
         <v>121</v>
       </c>
       <c r="D35" t="n">
-        <v>3.65</v>
+        <v>3.31</v>
       </c>
       <c r="E35" t="n">
-        <v>3.25</v>
+        <v>2.51</v>
       </c>
       <c r="F35" t="n">
-        <v>2.77</v>
+        <v>1.58</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3151,13 +3151,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>2.81</v>
+        <v>2.44</v>
       </c>
       <c r="K35" t="n">
-        <v>2.24</v>
+        <v>1.44</v>
       </c>
       <c r="L35" t="n">
-        <v>1.57</v>
+        <v>0.47</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -3180,13 +3180,13 @@
         <v>102</v>
       </c>
       <c r="D36" t="n">
-        <v>3.49</v>
+        <v>2.19</v>
       </c>
       <c r="E36" t="n">
-        <v>2.32</v>
+        <v>0.28</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>0.04</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3198,19 +3198,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>3.51</v>
+        <v>1.92</v>
       </c>
       <c r="K36" t="n">
-        <v>1.94</v>
+        <v>0.15</v>
       </c>
       <c r="L36" t="n">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -3227,13 +3227,13 @@
         <v>122</v>
       </c>
       <c r="D37" t="n">
-        <v>3.23</v>
+        <v>2.98</v>
       </c>
       <c r="E37" t="n">
-        <v>2.92</v>
+        <v>2.39</v>
       </c>
       <c r="F37" t="n">
-        <v>2.56</v>
+        <v>1.7</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3245,13 +3245,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.49</v>
+        <v>2.27</v>
       </c>
       <c r="K37" t="n">
-        <v>2.14</v>
+        <v>1.65</v>
       </c>
       <c r="L37" t="n">
-        <v>1.72</v>
+        <v>0.94</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -3274,13 +3274,13 @@
         <v>123</v>
       </c>
       <c r="D38" t="n">
-        <v>2.85</v>
+        <v>2.54</v>
       </c>
       <c r="E38" t="n">
-        <v>2.48</v>
+        <v>1.83</v>
       </c>
       <c r="F38" t="n">
-        <v>2.06</v>
+        <v>1.04</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3292,13 +3292,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>2.44</v>
+        <v>2.04</v>
       </c>
       <c r="K38" t="n">
-        <v>1.76</v>
+        <v>0.91</v>
       </c>
       <c r="L38" t="n">
-        <v>0.98</v>
+        <v>0.16</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -3321,37 +3321,37 @@
         <v>124</v>
       </c>
       <c r="D39" t="n">
-        <v>2.41</v>
+        <v>1.96</v>
       </c>
       <c r="E39" t="n">
-        <v>1.81</v>
+        <v>1.01</v>
       </c>
       <c r="F39" t="n">
-        <v>1.16</v>
+        <v>0.3</v>
       </c>
       <c r="G39" t="n">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>2.62</v>
+        <v>2.06</v>
       </c>
       <c r="K39" t="n">
-        <v>1.89</v>
+        <v>0.99</v>
       </c>
       <c r="L39" t="n">
-        <v>1.16</v>
+        <v>0.32</v>
       </c>
       <c r="M39" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -3368,13 +3368,13 @@
         <v>125</v>
       </c>
       <c r="D40" t="n">
-        <v>2.03</v>
+        <v>1.78</v>
       </c>
       <c r="E40" t="n">
-        <v>1.6</v>
+        <v>1.07</v>
       </c>
       <c r="F40" t="n">
-        <v>1.11</v>
+        <v>0.32</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3386,16 +3386,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1.76</v>
+        <v>1.44</v>
       </c>
       <c r="K40" t="n">
-        <v>1.11</v>
+        <v>0.54</v>
       </c>
       <c r="L40" t="n">
-        <v>0.51</v>
+        <v>0.08</v>
       </c>
       <c r="M40" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -3415,13 +3415,13 @@
         <v>126</v>
       </c>
       <c r="D41" t="n">
-        <v>3.66</v>
+        <v>3.36</v>
       </c>
       <c r="E41" t="n">
-        <v>3.27</v>
+        <v>2.63</v>
       </c>
       <c r="F41" t="n">
-        <v>2.81</v>
+        <v>1.77</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3433,13 +3433,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>2.34</v>
+        <v>2.06</v>
       </c>
       <c r="K41" t="n">
-        <v>1.95</v>
+        <v>1.34</v>
       </c>
       <c r="L41" t="n">
-        <v>1.5</v>
+        <v>0.54</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -3462,13 +3462,13 @@
         <v>127</v>
       </c>
       <c r="D42" t="n">
-        <v>2.35</v>
+        <v>2.04</v>
       </c>
       <c r="E42" t="n">
-        <v>1.48</v>
+        <v>0.83</v>
       </c>
       <c r="F42" t="n">
-        <v>0.54</v>
+        <v>0.04</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3480,16 +3480,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>1.79</v>
+        <v>1.42</v>
       </c>
       <c r="K42" t="n">
-        <v>0.79</v>
+        <v>0.3</v>
       </c>
       <c r="L42" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="M42" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -3509,13 +3509,13 @@
         <v>128</v>
       </c>
       <c r="D43" t="n">
-        <v>3.52</v>
+        <v>3.18</v>
       </c>
       <c r="E43" t="n">
-        <v>2.77</v>
+        <v>2.05</v>
       </c>
       <c r="F43" t="n">
-        <v>1.9</v>
+        <v>0.84</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3527,13 +3527,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>2.74</v>
+        <v>2.39</v>
       </c>
       <c r="K43" t="n">
-        <v>1.87</v>
+        <v>1.14</v>
       </c>
       <c r="L43" t="n">
-        <v>0.92</v>
+        <v>0.26</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -3574,16 +3574,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1.43</v>
+        <v>1.1</v>
       </c>
       <c r="K44" t="n">
-        <v>0.47</v>
+        <v>0.15</v>
       </c>
       <c r="L44" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -3621,16 +3621,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>2.33</v>
+        <v>1.94</v>
       </c>
       <c r="K45" t="n">
-        <v>1.16</v>
+        <v>0.49</v>
       </c>
       <c r="L45" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -3650,13 +3650,13 @@
         <v>131</v>
       </c>
       <c r="D46" t="n">
-        <v>3.5</v>
+        <v>3.11</v>
       </c>
       <c r="E46" t="n">
-        <v>2.7</v>
+        <v>1.89</v>
       </c>
       <c r="F46" t="n">
-        <v>1.79</v>
+        <v>0.63</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -3668,13 +3668,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>2.86</v>
+        <v>2.49</v>
       </c>
       <c r="K46" t="n">
-        <v>2.05</v>
+        <v>1.3</v>
       </c>
       <c r="L46" t="n">
-        <v>1.18</v>
+        <v>0.36</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -3697,13 +3697,13 @@
         <v>132</v>
       </c>
       <c r="D47" t="n">
-        <v>2.58</v>
+        <v>2.24</v>
       </c>
       <c r="E47" t="n">
-        <v>1.65</v>
+        <v>0.92</v>
       </c>
       <c r="F47" t="n">
-        <v>0.56</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -3715,16 +3715,16 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>1.48</v>
+        <v>1.03</v>
       </c>
       <c r="K47" t="n">
-        <v>0.44</v>
+        <v>0.12</v>
       </c>
       <c r="L47" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
@@ -3744,13 +3744,13 @@
         <v>133</v>
       </c>
       <c r="D48" t="n">
-        <v>5.73</v>
+        <v>5.24</v>
       </c>
       <c r="E48" t="n">
-        <v>4.52</v>
+        <v>3.47</v>
       </c>
       <c r="F48" t="n">
-        <v>3.11</v>
+        <v>1.39</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -3762,16 +3762,16 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>3.38</v>
+        <v>2.74</v>
       </c>
       <c r="K48" t="n">
-        <v>1.94</v>
+        <v>1.09</v>
       </c>
       <c r="L48" t="n">
-        <v>0.84</v>
+        <v>0.15</v>
       </c>
       <c r="M48" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
@@ -3791,13 +3791,13 @@
         <v>134</v>
       </c>
       <c r="D49" t="n">
-        <v>4.88</v>
+        <v>4.43</v>
       </c>
       <c r="E49" t="n">
-        <v>3.65</v>
+        <v>2.7</v>
       </c>
       <c r="F49" t="n">
-        <v>2.26</v>
+        <v>0.98</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -3809,13 +3809,13 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>4.37</v>
+        <v>3.83</v>
       </c>
       <c r="K49" t="n">
-        <v>3.19</v>
+        <v>2.03</v>
       </c>
       <c r="L49" t="n">
-        <v>1.81</v>
+        <v>0.37</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
@@ -3838,13 +3838,13 @@
         <v>135</v>
       </c>
       <c r="D50" t="n">
-        <v>2.9</v>
+        <v>2.36</v>
       </c>
       <c r="E50" t="n">
-        <v>1.5</v>
+        <v>0.58</v>
       </c>
       <c r="F50" t="n">
-        <v>0.4</v>
+        <v>0.02</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -3856,10 +3856,10 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>2.99</v>
+        <v>2.2</v>
       </c>
       <c r="K50" t="n">
-        <v>1.32</v>
+        <v>0.38</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -3885,16 +3885,16 @@
         <v>136</v>
       </c>
       <c r="D51" t="n">
-        <v>3.02</v>
+        <v>2.43</v>
       </c>
       <c r="E51" t="n">
-        <v>1.92</v>
+        <v>0.82</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9</v>
+        <v>0.08</v>
       </c>
       <c r="G51" t="n">
-        <v>0.56</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3903,16 +3903,16 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>2.87</v>
+        <v>2.01</v>
       </c>
       <c r="K51" t="n">
-        <v>1.4</v>
+        <v>0.22</v>
       </c>
       <c r="L51" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
@@ -3932,13 +3932,13 @@
         <v>137</v>
       </c>
       <c r="D52" t="n">
-        <v>3.72</v>
+        <v>3.23</v>
       </c>
       <c r="E52" t="n">
-        <v>2.76</v>
+        <v>1.7</v>
       </c>
       <c r="F52" t="n">
-        <v>1.64</v>
+        <v>0.46</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -3950,16 +3950,16 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>4.05</v>
+        <v>3.44</v>
       </c>
       <c r="K52" t="n">
-        <v>2.67</v>
+        <v>1.6</v>
       </c>
       <c r="L52" t="n">
-        <v>1.34</v>
+        <v>0.43</v>
       </c>
       <c r="M52" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -3979,13 +3979,13 @@
         <v>138</v>
       </c>
       <c r="D53" t="n">
-        <v>2.78</v>
+        <v>2.22</v>
       </c>
       <c r="E53" t="n">
-        <v>1.81</v>
+        <v>0.63</v>
       </c>
       <c r="F53" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -3997,16 +3997,16 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>2.79</v>
+        <v>1.92</v>
       </c>
       <c r="K53" t="n">
-        <v>1.2</v>
+        <v>0.17</v>
       </c>
       <c r="L53" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -4026,13 +4026,13 @@
         <v>140</v>
       </c>
       <c r="D54" t="n">
-        <v>3.84</v>
+        <v>3.59</v>
       </c>
       <c r="E54" t="n">
-        <v>3.35</v>
+        <v>2.81</v>
       </c>
       <c r="F54" t="n">
-        <v>2.78</v>
+        <v>1.89</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -4044,13 +4044,13 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>3.55</v>
+        <v>3.27</v>
       </c>
       <c r="K54" t="n">
-        <v>3.03</v>
+        <v>2.42</v>
       </c>
       <c r="L54" t="n">
-        <v>2.43</v>
+        <v>1.43</v>
       </c>
       <c r="M54" t="n">
         <v>0</v>
@@ -4073,13 +4073,13 @@
         <v>141</v>
       </c>
       <c r="D55" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="E55" t="n">
-        <v>2.92</v>
+        <v>2.38</v>
       </c>
       <c r="F55" t="n">
-        <v>2.29</v>
+        <v>1.42</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -4091,13 +4091,13 @@
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>2.15</v>
+        <v>1.84</v>
       </c>
       <c r="K55" t="n">
-        <v>1.47</v>
+        <v>0.82</v>
       </c>
       <c r="L55" t="n">
-        <v>0.71</v>
+        <v>0.12</v>
       </c>
       <c r="M55" t="n">
         <v>0</v>
@@ -4120,13 +4120,13 @@
         <v>142</v>
       </c>
       <c r="D56" t="n">
-        <v>3.02</v>
+        <v>2.71</v>
       </c>
       <c r="E56" t="n">
-        <v>2.29</v>
+        <v>1.63</v>
       </c>
       <c r="F56" t="n">
-        <v>1.44</v>
+        <v>0.38</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -4138,13 +4138,13 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>1.97</v>
+        <v>1.66</v>
       </c>
       <c r="K56" t="n">
-        <v>1.3</v>
+        <v>0.62</v>
       </c>
       <c r="L56" t="n">
-        <v>0.51</v>
+        <v>0.03</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
@@ -4167,13 +4167,13 @@
         <v>143</v>
       </c>
       <c r="D57" t="n">
-        <v>3.7</v>
+        <v>3.44</v>
       </c>
       <c r="E57" t="n">
-        <v>3.19</v>
+        <v>2.62</v>
       </c>
       <c r="F57" t="n">
-        <v>2.59</v>
+        <v>1.66</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>3.46</v>
+        <v>3.17</v>
       </c>
       <c r="K57" t="n">
-        <v>2.95</v>
+        <v>2.33</v>
       </c>
       <c r="L57" t="n">
-        <v>2.36</v>
+        <v>1.34</v>
       </c>
       <c r="M57" t="n">
         <v>0</v>
@@ -4214,13 +4214,13 @@
         <v>144</v>
       </c>
       <c r="D58" t="n">
-        <v>2.94</v>
+        <v>2.72</v>
       </c>
       <c r="E58" t="n">
-        <v>2.48</v>
+        <v>2.02</v>
       </c>
       <c r="F58" t="n">
-        <v>1.94</v>
+        <v>1.2</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -4232,13 +4232,13 @@
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>2.49</v>
+        <v>2.19</v>
       </c>
       <c r="K58" t="n">
-        <v>1.83</v>
+        <v>1.17</v>
       </c>
       <c r="L58" t="n">
-        <v>1.06</v>
+        <v>0.28</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
@@ -4261,13 +4261,13 @@
         <v>139</v>
       </c>
       <c r="D59" t="n">
-        <v>3.09</v>
+        <v>2.85</v>
       </c>
       <c r="E59" t="n">
-        <v>2.63</v>
+        <v>2.11</v>
       </c>
       <c r="F59" t="n">
-        <v>2.09</v>
+        <v>1.25</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -4279,13 +4279,13 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>2.96</v>
+        <v>2.66</v>
       </c>
       <c r="K59" t="n">
-        <v>2.33</v>
+        <v>1.68</v>
       </c>
       <c r="L59" t="n">
-        <v>1.6</v>
+        <v>0.62</v>
       </c>
       <c r="M59" t="n">
         <v>0</v>
@@ -4308,13 +4308,13 @@
         <v>145</v>
       </c>
       <c r="D60" t="n">
-        <v>3.75</v>
+        <v>3.52</v>
       </c>
       <c r="E60" t="n">
-        <v>3.24</v>
+        <v>2.74</v>
       </c>
       <c r="F60" t="n">
-        <v>2.64</v>
+        <v>1.84</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -4326,13 +4326,13 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>2.34</v>
+        <v>2.04</v>
       </c>
       <c r="K60" t="n">
-        <v>1.71</v>
+        <v>1.06</v>
       </c>
       <c r="L60" t="n">
-        <v>0.99</v>
+        <v>0.2</v>
       </c>
       <c r="M60" t="n">
         <v>0</v>
@@ -4355,13 +4355,13 @@
         <v>146</v>
       </c>
       <c r="D61" t="n">
-        <v>3.12</v>
+        <v>2.89</v>
       </c>
       <c r="E61" t="n">
-        <v>2.66</v>
+        <v>2.16</v>
       </c>
       <c r="F61" t="n">
-        <v>2.11</v>
+        <v>1.31</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -4373,13 +4373,13 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>2.33</v>
+        <v>2.05</v>
       </c>
       <c r="K61" t="n">
-        <v>1.76</v>
+        <v>1.16</v>
       </c>
       <c r="L61" t="n">
-        <v>1.09</v>
+        <v>0.32</v>
       </c>
       <c r="M61" t="n">
         <v>0</v>
@@ -4402,13 +4402,13 @@
         <v>147</v>
       </c>
       <c r="D62" t="n">
-        <v>4.3</v>
+        <v>4.03</v>
       </c>
       <c r="E62" t="n">
-        <v>3.59</v>
+        <v>3</v>
       </c>
       <c r="F62" t="n">
-        <v>2.76</v>
+        <v>1.8</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -4420,13 +4420,13 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>4.17</v>
+        <v>3.85</v>
       </c>
       <c r="K62" t="n">
-        <v>3.3</v>
+        <v>2.61</v>
       </c>
       <c r="L62" t="n">
-        <v>2.28</v>
+        <v>1.16</v>
       </c>
       <c r="M62" t="n">
         <v>0</v>
@@ -4467,13 +4467,13 @@
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>3.03</v>
+        <v>2.75</v>
       </c>
       <c r="K63" t="n">
-        <v>2.38</v>
+        <v>1.76</v>
       </c>
       <c r="L63" t="n">
-        <v>1.63</v>
+        <v>0.65</v>
       </c>
       <c r="M63" t="n">
         <v>0</v>
@@ -4496,13 +4496,13 @@
         <v>149</v>
       </c>
       <c r="D64" t="n">
-        <v>2.89</v>
+        <v>2.69</v>
       </c>
       <c r="E64" t="n">
-        <v>2.53</v>
+        <v>2.09</v>
       </c>
       <c r="F64" t="n">
-        <v>2.09</v>
+        <v>1.39</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -4514,13 +4514,13 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>2.92</v>
+        <v>2.65</v>
       </c>
       <c r="K64" t="n">
-        <v>2.37</v>
+        <v>1.79</v>
       </c>
       <c r="L64" t="n">
-        <v>1.72</v>
+        <v>0.82</v>
       </c>
       <c r="M64" t="n">
         <v>0</v>
@@ -4543,13 +4543,13 @@
         <v>151</v>
       </c>
       <c r="D65" t="n">
-        <v>3.59</v>
+        <v>3.33</v>
       </c>
       <c r="E65" t="n">
-        <v>2.9</v>
+        <v>2.33</v>
       </c>
       <c r="F65" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -4561,13 +4561,13 @@
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>3</v>
+        <v>2.69</v>
       </c>
       <c r="K65" t="n">
-        <v>2.21</v>
+        <v>1.53</v>
       </c>
       <c r="L65" t="n">
-        <v>1.29</v>
+        <v>0.3</v>
       </c>
       <c r="M65" t="n">
         <v>0</v>
@@ -4590,13 +4590,13 @@
         <v>152</v>
       </c>
       <c r="D66" t="n">
-        <v>3.59</v>
+        <v>3.31</v>
       </c>
       <c r="E66" t="n">
-        <v>2.89</v>
+        <v>2.3</v>
       </c>
       <c r="F66" t="n">
-        <v>2.07</v>
+        <v>1.15</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -4608,13 +4608,13 @@
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>2.32</v>
+        <v>1.97</v>
       </c>
       <c r="K66" t="n">
-        <v>1.47</v>
+        <v>0.76</v>
       </c>
       <c r="L66" t="n">
-        <v>0.56</v>
+        <v>0.07</v>
       </c>
       <c r="M66" t="n">
         <v>0</v>
@@ -4637,13 +4637,13 @@
         <v>153</v>
       </c>
       <c r="D67" t="n">
-        <v>3.56</v>
+        <v>3.31</v>
       </c>
       <c r="E67" t="n">
-        <v>2.95</v>
+        <v>2.41</v>
       </c>
       <c r="F67" t="n">
-        <v>2.23</v>
+        <v>1.36</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
@@ -4655,13 +4655,13 @@
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>3.58</v>
+        <v>3.3</v>
       </c>
       <c r="K67" t="n">
-        <v>2.9</v>
+        <v>2.29</v>
       </c>
       <c r="L67" t="n">
-        <v>2.11</v>
+        <v>1.13</v>
       </c>
       <c r="M67" t="n">
         <v>0</v>
@@ -4684,13 +4684,13 @@
         <v>154</v>
       </c>
       <c r="D68" t="n">
-        <v>3.87</v>
+        <v>3.52</v>
       </c>
       <c r="E68" t="n">
-        <v>2.82</v>
+        <v>2.06</v>
       </c>
       <c r="F68" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
@@ -4702,13 +4702,13 @@
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>3.01</v>
+        <v>2.64</v>
       </c>
       <c r="K68" t="n">
-        <v>1.99</v>
+        <v>1.26</v>
       </c>
       <c r="L68" t="n">
-        <v>0.92</v>
+        <v>0.16</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
@@ -4731,13 +4731,13 @@
         <v>155</v>
       </c>
       <c r="D69" t="n">
-        <v>4.15</v>
+        <v>3.8</v>
       </c>
       <c r="E69" t="n">
-        <v>3.41</v>
+        <v>2.65</v>
       </c>
       <c r="F69" t="n">
-        <v>2.54</v>
+        <v>1.32</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -4749,16 +4749,16 @@
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>2.2</v>
+        <v>1.86</v>
       </c>
       <c r="K69" t="n">
-        <v>1.47</v>
+        <v>0.87</v>
       </c>
       <c r="L69" t="n">
-        <v>0.79</v>
+        <v>0.18</v>
       </c>
       <c r="M69" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="N69" t="n">
         <v>0</v>
@@ -4778,13 +4778,13 @@
         <v>156</v>
       </c>
       <c r="D70" t="n">
-        <v>2.81</v>
+        <v>2.57</v>
       </c>
       <c r="E70" t="n">
-        <v>2.34</v>
+        <v>1.82</v>
       </c>
       <c r="F70" t="n">
-        <v>1.79</v>
+        <v>0.96</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -4796,13 +4796,13 @@
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>2.18</v>
+        <v>1.89</v>
       </c>
       <c r="K70" t="n">
-        <v>1.59</v>
+        <v>0.97</v>
       </c>
       <c r="L70" t="n">
-        <v>0.92</v>
+        <v>0.25</v>
       </c>
       <c r="M70" t="n">
         <v>0</v>
@@ -4825,13 +4825,13 @@
         <v>157</v>
       </c>
       <c r="D71" t="n">
-        <v>2.84</v>
+        <v>2.63</v>
       </c>
       <c r="E71" t="n">
-        <v>2.46</v>
+        <v>2</v>
       </c>
       <c r="F71" t="n">
-        <v>2.01</v>
+        <v>1.3</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -4843,13 +4843,13 @@
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>2.48</v>
+        <v>2.22</v>
       </c>
       <c r="K71" t="n">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="L71" t="n">
-        <v>1.44</v>
+        <v>0.63</v>
       </c>
       <c r="M71" t="n">
         <v>0</v>
@@ -4872,13 +4872,13 @@
         <v>159</v>
       </c>
       <c r="D72" t="n">
-        <v>5.07</v>
+        <v>4.71</v>
       </c>
       <c r="E72" t="n">
-        <v>4.03</v>
+        <v>3.26</v>
       </c>
       <c r="F72" t="n">
-        <v>2.81</v>
+        <v>1.57</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -4890,13 +4890,13 @@
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>5.35</v>
+        <v>4.9</v>
       </c>
       <c r="K72" t="n">
-        <v>4.16</v>
+        <v>3.2</v>
       </c>
       <c r="L72" t="n">
-        <v>2.77</v>
+        <v>1.2</v>
       </c>
       <c r="M72" t="n">
         <v>0</v>
@@ -4919,13 +4919,13 @@
         <v>160</v>
       </c>
       <c r="D73" t="n">
-        <v>4.96</v>
+        <v>4.61</v>
       </c>
       <c r="E73" t="n">
-        <v>3.8</v>
+        <v>3.05</v>
       </c>
       <c r="F73" t="n">
-        <v>2.44</v>
+        <v>1.24</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -4966,13 +4966,13 @@
         <v>161</v>
       </c>
       <c r="D74" t="n">
-        <v>5.07</v>
+        <v>4.7</v>
       </c>
       <c r="E74" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="F74" t="n">
-        <v>2.53</v>
+        <v>1.27</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -5013,13 +5013,13 @@
         <v>162</v>
       </c>
       <c r="D75" t="n">
-        <v>5.54</v>
+        <v>5.13</v>
       </c>
       <c r="E75" t="n">
-        <v>4.38</v>
+        <v>3.49</v>
       </c>
       <c r="F75" t="n">
-        <v>3.02</v>
+        <v>1.62</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -5031,13 +5031,13 @@
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>3.01</v>
+        <v>2.65</v>
       </c>
       <c r="K75" t="n">
-        <v>1.91</v>
+        <v>1.13</v>
       </c>
       <c r="L75" t="n">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="M75" t="n">
         <v>0</v>
@@ -5060,13 +5060,13 @@
         <v>158</v>
       </c>
       <c r="D76" t="n">
-        <v>5.23</v>
+        <v>4.82</v>
       </c>
       <c r="E76" t="n">
-        <v>4.07</v>
+        <v>3.19</v>
       </c>
       <c r="F76" t="n">
-        <v>2.71</v>
+        <v>1.35</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
@@ -5107,13 +5107,13 @@
         <v>163</v>
       </c>
       <c r="D77" t="n">
-        <v>7.02</v>
+        <v>6.62</v>
       </c>
       <c r="E77" t="n">
-        <v>5.85</v>
+        <v>5</v>
       </c>
       <c r="F77" t="n">
-        <v>4.49</v>
+        <v>3.11</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
@@ -5125,13 +5125,13 @@
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>5.86</v>
+        <v>5.35</v>
       </c>
       <c r="K77" t="n">
-        <v>4.53</v>
+        <v>3.44</v>
       </c>
       <c r="L77" t="n">
-        <v>2.99</v>
+        <v>1.21</v>
       </c>
       <c r="M77" t="n">
         <v>0</v>
@@ -5154,13 +5154,13 @@
         <v>164</v>
       </c>
       <c r="D78" t="n">
-        <v>4.9</v>
+        <v>4.59</v>
       </c>
       <c r="E78" t="n">
-        <v>3.97</v>
+        <v>3.3</v>
       </c>
       <c r="F78" t="n">
-        <v>2.89</v>
+        <v>1.79</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -5201,13 +5201,13 @@
         <v>165</v>
       </c>
       <c r="D79" t="n">
-        <v>6.13</v>
+        <v>5.73</v>
       </c>
       <c r="E79" t="n">
-        <v>4.87</v>
+        <v>4</v>
       </c>
       <c r="F79" t="n">
-        <v>3.4</v>
+        <v>2.02</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
@@ -5248,13 +5248,13 @@
         <v>166</v>
       </c>
       <c r="D80" t="n">
-        <v>4.41</v>
+        <v>4.08</v>
       </c>
       <c r="E80" t="n">
-        <v>3.45</v>
+        <v>2.73</v>
       </c>
       <c r="F80" t="n">
-        <v>2.32</v>
+        <v>1.19</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -5266,13 +5266,13 @@
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>3.92</v>
+        <v>3.59</v>
       </c>
       <c r="K80" t="n">
-        <v>2.95</v>
+        <v>2.23</v>
       </c>
       <c r="L80" t="n">
-        <v>1.82</v>
+        <v>0.73</v>
       </c>
       <c r="M80" t="n">
         <v>0</v>
@@ -5295,16 +5295,16 @@
         <v>168</v>
       </c>
       <c r="D81" t="n">
-        <v>3.51</v>
+        <v>2.76</v>
       </c>
       <c r="E81" t="n">
-        <v>1.64</v>
+        <v>0.58</v>
       </c>
       <c r="F81" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5313,16 +5313,16 @@
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>3.14</v>
+        <v>2.37</v>
       </c>
       <c r="K81" t="n">
-        <v>1.19</v>
+        <v>0.26</v>
       </c>
       <c r="L81" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="M81" t="n">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="N81" t="n">
         <v>0</v>
@@ -5342,13 +5342,13 @@
         <v>169</v>
       </c>
       <c r="D82" t="n">
-        <v>4.74</v>
+        <v>3.49</v>
       </c>
       <c r="E82" t="n">
-        <v>2.18</v>
+        <v>0.93</v>
       </c>
       <c r="F82" t="n">
-        <v>0.61</v>
+        <v>0.02</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -5360,16 +5360,16 @@
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>3.47</v>
+        <v>2.73</v>
       </c>
       <c r="K82" t="n">
-        <v>1.57</v>
+        <v>0.67</v>
       </c>
       <c r="L82" t="n">
-        <v>0.3</v>
+        <v>0.01</v>
       </c>
       <c r="M82" t="n">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="N82" t="n">
         <v>0</v>
@@ -5389,13 +5389,13 @@
         <v>170</v>
       </c>
       <c r="D83" t="n">
-        <v>3.51</v>
+        <v>2.99</v>
       </c>
       <c r="E83" t="n">
-        <v>1.86</v>
+        <v>0.83</v>
       </c>
       <c r="F83" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -5407,13 +5407,13 @@
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>4.2</v>
+        <v>3.67</v>
       </c>
       <c r="K83" t="n">
-        <v>2.54</v>
+        <v>1.61</v>
       </c>
       <c r="L83" t="n">
-        <v>0.91</v>
+        <v>0.15</v>
       </c>
       <c r="M83" t="n">
         <v>0</v>
@@ -5436,13 +5436,13 @@
         <v>171</v>
       </c>
       <c r="D84" t="n">
-        <v>5.02</v>
+        <v>4.57</v>
       </c>
       <c r="E84" t="n">
-        <v>3.38</v>
+        <v>2.41</v>
       </c>
       <c r="F84" t="n">
-        <v>1.46</v>
+        <v>0.19</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -5454,13 +5454,13 @@
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>4.31</v>
+        <v>3.77</v>
       </c>
       <c r="K84" t="n">
-        <v>2.46</v>
+        <v>1.33</v>
       </c>
       <c r="L84" t="n">
-        <v>0.5</v>
+        <v>0.01</v>
       </c>
       <c r="M84" t="n">
         <v>0</v>
@@ -5483,13 +5483,13 @@
         <v>167</v>
       </c>
       <c r="D85" t="n">
-        <v>3.95</v>
+        <v>3.51</v>
       </c>
       <c r="E85" t="n">
-        <v>2.54</v>
+        <v>1.62</v>
       </c>
       <c r="F85" t="n">
-        <v>0.96</v>
+        <v>0.14</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -5501,16 +5501,16 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>3.56</v>
+        <v>2.84</v>
       </c>
       <c r="K85" t="n">
-        <v>1.8</v>
+        <v>0.86</v>
       </c>
       <c r="L85" t="n">
-        <v>0.48</v>
+        <v>0.03</v>
       </c>
       <c r="M85" t="n">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="N85" t="n">
         <v>0</v>
@@ -5530,13 +5530,13 @@
         <v>172</v>
       </c>
       <c r="D86" t="n">
-        <v>4.54</v>
+        <v>3.96</v>
       </c>
       <c r="E86" t="n">
-        <v>2.85</v>
+        <v>1.73</v>
       </c>
       <c r="F86" t="n">
-        <v>1.1</v>
+        <v>0.22</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
@@ -5548,13 +5548,13 @@
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>5.08</v>
+        <v>4.51</v>
       </c>
       <c r="K86" t="n">
-        <v>3.29</v>
+        <v>2.11</v>
       </c>
       <c r="L86" t="n">
-        <v>1.35</v>
+        <v>0.32</v>
       </c>
       <c r="M86" t="n">
         <v>0</v>
@@ -5577,13 +5577,13 @@
         <v>173</v>
       </c>
       <c r="D87" t="n">
-        <v>5.65</v>
+        <v>5.25</v>
       </c>
       <c r="E87" t="n">
-        <v>4.21</v>
+        <v>3.33</v>
       </c>
       <c r="F87" t="n">
-        <v>2.52</v>
+        <v>1.15</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
@@ -5595,13 +5595,13 @@
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>5.69</v>
+        <v>5.2</v>
       </c>
       <c r="K87" t="n">
-        <v>4.05</v>
+        <v>3</v>
       </c>
       <c r="L87" t="n">
-        <v>2.15</v>
+        <v>0.79</v>
       </c>
       <c r="M87" t="n">
         <v>0</v>
@@ -5624,13 +5624,13 @@
         <v>175</v>
       </c>
       <c r="D88" t="n">
-        <v>4.14</v>
+        <v>3.93</v>
       </c>
       <c r="E88" t="n">
-        <v>3.59</v>
+        <v>3.13</v>
       </c>
       <c r="F88" t="n">
-        <v>2.94</v>
+        <v>2.2</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
@@ -5642,13 +5642,13 @@
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>2.47</v>
+        <v>2.13</v>
       </c>
       <c r="K88" t="n">
-        <v>1.66</v>
+        <v>0.97</v>
       </c>
       <c r="L88" t="n">
-        <v>0.79</v>
+        <v>0.26</v>
       </c>
       <c r="M88" t="n">
         <v>0</v>
@@ -5689,13 +5689,13 @@
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>3.04</v>
+        <v>2.66</v>
       </c>
       <c r="K89" t="n">
-        <v>2.13</v>
+        <v>1.32</v>
       </c>
       <c r="L89" t="n">
-        <v>1.09</v>
+        <v>0.13</v>
       </c>
       <c r="M89" t="n">
         <v>0</v>
@@ -5718,13 +5718,13 @@
         <v>102</v>
       </c>
       <c r="D90" t="n">
-        <v>2.96</v>
+        <v>1.53</v>
       </c>
       <c r="E90" t="n">
-        <v>1.63</v>
+        <v>0.08</v>
       </c>
       <c r="F90" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -5736,16 +5736,16 @@
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>2.18</v>
+        <v>1.08</v>
       </c>
       <c r="K90" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="L90" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="M90" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="N90" t="n">
         <v>0</v>
@@ -5765,13 +5765,13 @@
         <v>177</v>
       </c>
       <c r="D91" t="n">
-        <v>1.75</v>
+        <v>1.42</v>
       </c>
       <c r="E91" t="n">
-        <v>0.82</v>
+        <v>0.26</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
@@ -5783,13 +5783,13 @@
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>2.87</v>
+        <v>2.5</v>
       </c>
       <c r="K91" t="n">
-        <v>1.77</v>
+        <v>0.99</v>
       </c>
       <c r="L91" t="n">
-        <v>0.61</v>
+        <v>0.07</v>
       </c>
       <c r="M91" t="n">
         <v>0</v>
@@ -5812,13 +5812,13 @@
         <v>174</v>
       </c>
       <c r="D92" t="n">
-        <v>1.54</v>
+        <v>1.17</v>
       </c>
       <c r="E92" t="n">
-        <v>0.64</v>
+        <v>0.13</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
@@ -5830,16 +5830,16 @@
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>2.08</v>
+        <v>1.65</v>
       </c>
       <c r="K92" t="n">
-        <v>1.13</v>
+        <v>0.54</v>
       </c>
       <c r="L92" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="M92" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="N92" t="n">
         <v>0</v>
@@ -5859,13 +5859,13 @@
         <v>178</v>
       </c>
       <c r="D93" t="n">
-        <v>2.22</v>
+        <v>1.67</v>
       </c>
       <c r="E93" t="n">
-        <v>1.5</v>
+        <v>0.59</v>
       </c>
       <c r="F93" t="n">
-        <v>0.68</v>
+        <v>0.06</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
@@ -5877,16 +5877,16 @@
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>2.29</v>
+        <v>1.86</v>
       </c>
       <c r="K93" t="n">
-        <v>1.15</v>
+        <v>0.54</v>
       </c>
       <c r="L93" t="n">
-        <v>0.31</v>
+        <v>0.05</v>
       </c>
       <c r="M93" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="N93" t="n">
         <v>0</v>
@@ -5906,13 +5906,13 @@
         <v>179</v>
       </c>
       <c r="D94" t="n">
-        <v>2.22</v>
+        <v>1.92</v>
       </c>
       <c r="E94" t="n">
-        <v>1.32</v>
+        <v>0.71</v>
       </c>
       <c r="F94" t="n">
-        <v>0.38</v>
+        <v>0.03</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
@@ -5924,16 +5924,16 @@
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>2.13</v>
+        <v>1.67</v>
       </c>
       <c r="K94" t="n">
-        <v>0.66</v>
+        <v>0.18</v>
       </c>
       <c r="L94" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="M94" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="N94" t="n">
         <v>0</v>
@@ -5953,13 +5953,13 @@
         <v>181</v>
       </c>
       <c r="D95" t="n">
-        <v>6.11</v>
+        <v>5.69</v>
       </c>
       <c r="E95" t="n">
-        <v>5.07</v>
+        <v>4.17</v>
       </c>
       <c r="F95" t="n">
-        <v>3.87</v>
+        <v>2.45</v>
       </c>
       <c r="G95" t="n">
         <v>0</v>
@@ -5971,13 +5971,13 @@
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>4.81</v>
+        <v>4.34</v>
       </c>
       <c r="K95" t="n">
-        <v>3.73</v>
+        <v>2.74</v>
       </c>
       <c r="L95" t="n">
-        <v>2.52</v>
+        <v>1.15</v>
       </c>
       <c r="M95" t="n">
         <v>0</v>
@@ -6000,13 +6000,13 @@
         <v>182</v>
       </c>
       <c r="D96" t="n">
-        <v>3.67</v>
+        <v>3.31</v>
       </c>
       <c r="E96" t="n">
-        <v>2.78</v>
+        <v>2</v>
       </c>
       <c r="F96" t="n">
-        <v>1.76</v>
+        <v>0.69</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
@@ -6018,13 +6018,13 @@
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>3.79</v>
+        <v>3.32</v>
       </c>
       <c r="K96" t="n">
-        <v>2.54</v>
+        <v>1.58</v>
       </c>
       <c r="L96" t="n">
-        <v>1.27</v>
+        <v>0.58</v>
       </c>
       <c r="M96" t="n">
         <v>0</v>
@@ -6047,13 +6047,13 @@
         <v>183</v>
       </c>
       <c r="D97" t="n">
-        <v>4.06</v>
+        <v>3.71</v>
       </c>
       <c r="E97" t="n">
-        <v>3.02</v>
+        <v>2.27</v>
       </c>
       <c r="F97" t="n">
-        <v>1.82</v>
+        <v>0.69</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
@@ -6065,13 +6065,13 @@
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>3.69</v>
+        <v>3.28</v>
       </c>
       <c r="K97" t="n">
-        <v>2.57</v>
+        <v>1.73</v>
       </c>
       <c r="L97" t="n">
-        <v>1.35</v>
+        <v>0.28</v>
       </c>
       <c r="M97" t="n">
         <v>0</v>
@@ -6094,13 +6094,13 @@
         <v>180</v>
       </c>
       <c r="D98" t="n">
-        <v>5.49</v>
+        <v>5.11</v>
       </c>
       <c r="E98" t="n">
-        <v>4.59</v>
+        <v>3.78</v>
       </c>
       <c r="F98" t="n">
-        <v>3.55</v>
+        <v>2.28</v>
       </c>
       <c r="G98" t="n">
         <v>0</v>
@@ -6112,13 +6112,13 @@
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>4.46</v>
+        <v>3.99</v>
       </c>
       <c r="K98" t="n">
-        <v>3.38</v>
+        <v>2.37</v>
       </c>
       <c r="L98" t="n">
-        <v>2.12</v>
+        <v>0.75</v>
       </c>
       <c r="M98" t="n">
         <v>0</v>
@@ -6141,13 +6141,13 @@
         <v>184</v>
       </c>
       <c r="D99" t="n">
-        <v>3.76</v>
+        <v>3.42</v>
       </c>
       <c r="E99" t="n">
-        <v>2.89</v>
+        <v>2.16</v>
       </c>
       <c r="F99" t="n">
-        <v>1.88</v>
+        <v>0.73</v>
       </c>
       <c r="G99" t="n">
         <v>0</v>
@@ -6159,13 +6159,13 @@
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>4.17</v>
+        <v>3.81</v>
       </c>
       <c r="K99" t="n">
-        <v>3.27</v>
+        <v>2.54</v>
       </c>
       <c r="L99" t="n">
-        <v>2.32</v>
+        <v>1.29</v>
       </c>
       <c r="M99" t="n">
         <v>0</v>
@@ -6188,13 +6188,13 @@
         <v>186</v>
       </c>
       <c r="D100" t="n">
-        <v>3.09</v>
+        <v>2.75</v>
       </c>
       <c r="E100" t="n">
-        <v>2.39</v>
+        <v>1.68</v>
       </c>
       <c r="F100" t="n">
-        <v>1.6</v>
+        <v>0.69</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
@@ -6206,13 +6206,13 @@
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>2.51</v>
+        <v>2.13</v>
       </c>
       <c r="K100" t="n">
-        <v>1.68</v>
+        <v>0.94</v>
       </c>
       <c r="L100" t="n">
-        <v>0.83</v>
+        <v>0.22</v>
       </c>
       <c r="M100" t="n">
         <v>0</v>
@@ -6235,13 +6235,13 @@
         <v>187</v>
       </c>
       <c r="D101" t="n">
-        <v>4.04</v>
+        <v>3.65</v>
       </c>
       <c r="E101" t="n">
-        <v>2.78</v>
+        <v>1.94</v>
       </c>
       <c r="F101" t="n">
-        <v>1.31</v>
+        <v>0.3</v>
       </c>
       <c r="G101" t="n">
         <v>0</v>
@@ -6253,13 +6253,13 @@
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>4.19</v>
+        <v>3.76</v>
       </c>
       <c r="K101" t="n">
-        <v>2.77</v>
+        <v>1.86</v>
       </c>
       <c r="L101" t="n">
-        <v>1.16</v>
+        <v>0.23</v>
       </c>
       <c r="M101" t="n">
         <v>0</v>
@@ -6282,13 +6282,13 @@
         <v>188</v>
       </c>
       <c r="D102" t="n">
-        <v>5.03</v>
+        <v>4.65</v>
       </c>
       <c r="E102" t="n">
-        <v>3.75</v>
+        <v>2.93</v>
       </c>
       <c r="F102" t="n">
-        <v>2.26</v>
+        <v>0.99</v>
       </c>
       <c r="G102" t="n">
         <v>0</v>
@@ -6300,13 +6300,13 @@
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>4.7</v>
+        <v>4.21</v>
       </c>
       <c r="K102" t="n">
-        <v>3.03</v>
+        <v>2.01</v>
       </c>
       <c r="L102" t="n">
-        <v>1.25</v>
+        <v>0.3</v>
       </c>
       <c r="M102" t="n">
         <v>0</v>
@@ -6329,13 +6329,13 @@
         <v>189</v>
       </c>
       <c r="D103" t="n">
-        <v>3.78</v>
+        <v>3.39</v>
       </c>
       <c r="E103" t="n">
-        <v>2.58</v>
+        <v>1.75</v>
       </c>
       <c r="F103" t="n">
-        <v>1.24</v>
+        <v>0.24</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
@@ -6347,13 +6347,13 @@
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>3.78</v>
+        <v>3.38</v>
       </c>
       <c r="K103" t="n">
-        <v>2.59</v>
+        <v>1.75</v>
       </c>
       <c r="L103" t="n">
-        <v>1.24</v>
+        <v>0.26</v>
       </c>
       <c r="M103" t="n">
         <v>0</v>
@@ -6376,16 +6376,16 @@
         <v>190</v>
       </c>
       <c r="D104" t="n">
-        <v>2.96</v>
+        <v>2.14</v>
       </c>
       <c r="E104" t="n">
-        <v>1.12</v>
+        <v>0.41</v>
       </c>
       <c r="F104" t="n">
-        <v>0.18</v>
+        <v>0.04</v>
       </c>
       <c r="G104" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6394,13 +6394,13 @@
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>3.69</v>
+        <v>3.08</v>
       </c>
       <c r="K104" t="n">
-        <v>1.78</v>
+        <v>0.74</v>
       </c>
       <c r="L104" t="n">
-        <v>0.25</v>
+        <v>0.01</v>
       </c>
       <c r="M104" t="n">
         <v>0</v>
@@ -6423,13 +6423,13 @@
         <v>185</v>
       </c>
       <c r="D105" t="n">
-        <v>3.27</v>
+        <v>2.93</v>
       </c>
       <c r="E105" t="n">
-        <v>2.34</v>
+        <v>1.61</v>
       </c>
       <c r="F105" t="n">
-        <v>1.26</v>
+        <v>0.29</v>
       </c>
       <c r="G105" t="n">
         <v>0</v>
@@ -6441,16 +6441,16 @@
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>3.13</v>
+        <v>2.7</v>
       </c>
       <c r="K105" t="n">
-        <v>1.91</v>
+        <v>1.08</v>
       </c>
       <c r="L105" t="n">
-        <v>0.72</v>
+        <v>0.12</v>
       </c>
       <c r="M105" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="N105" t="n">
         <v>0</v>
@@ -6470,13 +6470,13 @@
         <v>191</v>
       </c>
       <c r="D106" t="n">
-        <v>3.86</v>
+        <v>3.52</v>
       </c>
       <c r="E106" t="n">
-        <v>3.2</v>
+        <v>2.46</v>
       </c>
       <c r="F106" t="n">
-        <v>2.42</v>
+        <v>1.22</v>
       </c>
       <c r="G106" t="n">
         <v>0</v>
@@ -6488,13 +6488,13 @@
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>2.45</v>
+        <v>2.13</v>
       </c>
       <c r="K106" t="n">
-        <v>1.69</v>
+        <v>1.08</v>
       </c>
       <c r="L106" t="n">
-        <v>0.95</v>
+        <v>0.35</v>
       </c>
       <c r="M106" t="n">
         <v>0</v>
@@ -6517,13 +6517,13 @@
         <v>193</v>
       </c>
       <c r="D107" t="n">
-        <v>3.08</v>
+        <v>2.85</v>
       </c>
       <c r="E107" t="n">
-        <v>2.68</v>
+        <v>2.2</v>
       </c>
       <c r="F107" t="n">
-        <v>2.23</v>
+        <v>1.44</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
@@ -6535,13 +6535,13 @@
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>2.99</v>
+        <v>2.74</v>
       </c>
       <c r="K107" t="n">
-        <v>2.45</v>
+        <v>1.9</v>
       </c>
       <c r="L107" t="n">
-        <v>1.81</v>
+        <v>0.91</v>
       </c>
       <c r="M107" t="n">
         <v>0</v>
@@ -6564,13 +6564,13 @@
         <v>194</v>
       </c>
       <c r="D108" t="n">
-        <v>3</v>
+        <v>2.74</v>
       </c>
       <c r="E108" t="n">
-        <v>2.42</v>
+        <v>1.88</v>
       </c>
       <c r="F108" t="n">
-        <v>1.76</v>
+        <v>0.88</v>
       </c>
       <c r="G108" t="n">
         <v>0</v>
@@ -6582,13 +6582,13 @@
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>3.17</v>
+        <v>2.88</v>
       </c>
       <c r="K108" t="n">
-        <v>2.45</v>
+        <v>1.82</v>
       </c>
       <c r="L108" t="n">
-        <v>1.6</v>
+        <v>0.58</v>
       </c>
       <c r="M108" t="n">
         <v>0</v>
@@ -6611,13 +6611,13 @@
         <v>195</v>
       </c>
       <c r="D109" t="n">
-        <v>3.46</v>
+        <v>3.19</v>
       </c>
       <c r="E109" t="n">
-        <v>2.79</v>
+        <v>2.22</v>
       </c>
       <c r="F109" t="n">
-        <v>2.01</v>
+        <v>1.11</v>
       </c>
       <c r="G109" t="n">
         <v>0</v>
@@ -6629,13 +6629,13 @@
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>3.05</v>
+        <v>2.77</v>
       </c>
       <c r="K109" t="n">
-        <v>2.36</v>
+        <v>1.76</v>
       </c>
       <c r="L109" t="n">
-        <v>1.57</v>
+        <v>0.66</v>
       </c>
       <c r="M109" t="n">
         <v>0</v>
@@ -6658,13 +6658,13 @@
         <v>196</v>
       </c>
       <c r="D110" t="n">
-        <v>3.78</v>
+        <v>3.52</v>
       </c>
       <c r="E110" t="n">
-        <v>3.16</v>
+        <v>2.6</v>
       </c>
       <c r="F110" t="n">
-        <v>2.43</v>
+        <v>1.52</v>
       </c>
       <c r="G110" t="n">
         <v>0</v>
@@ -6676,13 +6676,13 @@
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>3.85</v>
+        <v>3.54</v>
       </c>
       <c r="K110" t="n">
-        <v>3.15</v>
+        <v>2.48</v>
       </c>
       <c r="L110" t="n">
-        <v>2.32</v>
+        <v>1.25</v>
       </c>
       <c r="M110" t="n">
         <v>0</v>
@@ -6705,13 +6705,13 @@
         <v>197</v>
       </c>
       <c r="D111" t="n">
-        <v>3.49</v>
+        <v>3.22</v>
       </c>
       <c r="E111" t="n">
-        <v>2.85</v>
+        <v>2.27</v>
       </c>
       <c r="F111" t="n">
-        <v>2.11</v>
+        <v>1.16</v>
       </c>
       <c r="G111" t="n">
         <v>0</v>
@@ -6723,13 +6723,13 @@
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>3.19</v>
+        <v>2.91</v>
       </c>
       <c r="K111" t="n">
-        <v>2.6</v>
+        <v>2.01</v>
       </c>
       <c r="L111" t="n">
-        <v>1.91</v>
+        <v>0.96</v>
       </c>
       <c r="M111" t="n">
         <v>0</v>
@@ -6752,13 +6752,13 @@
         <v>198</v>
       </c>
       <c r="D112" t="n">
-        <v>3.36</v>
+        <v>3.06</v>
       </c>
       <c r="E112" t="n">
-        <v>2.61</v>
+        <v>1.98</v>
       </c>
       <c r="F112" t="n">
-        <v>1.75</v>
+        <v>0.79</v>
       </c>
       <c r="G112" t="n">
         <v>0</v>
@@ -6770,13 +6770,13 @@
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>3.42</v>
+        <v>3.06</v>
       </c>
       <c r="K112" t="n">
-        <v>2.28</v>
+        <v>1.51</v>
       </c>
       <c r="L112" t="n">
-        <v>0.95</v>
+        <v>0.05</v>
       </c>
       <c r="M112" t="n">
         <v>0</v>
@@ -6799,13 +6799,13 @@
         <v>200</v>
       </c>
       <c r="D113" t="n">
-        <v>5.15</v>
+        <v>4.75</v>
       </c>
       <c r="E113" t="n">
-        <v>4.08</v>
+        <v>3.22</v>
       </c>
       <c r="F113" t="n">
-        <v>2.84</v>
+        <v>1.46</v>
       </c>
       <c r="G113" t="n">
         <v>0</v>
@@ -6817,13 +6817,13 @@
         <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>4.23</v>
+        <v>3.66</v>
       </c>
       <c r="K113" t="n">
-        <v>2.92</v>
+        <v>1.7</v>
       </c>
       <c r="L113" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="M113" t="n">
         <v>0</v>
@@ -6846,13 +6846,13 @@
         <v>201</v>
       </c>
       <c r="D114" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="E114" t="n">
-        <v>4.33</v>
+        <v>3.48</v>
       </c>
       <c r="F114" t="n">
-        <v>2.97</v>
+        <v>1.62</v>
       </c>
       <c r="G114" t="n">
         <v>0</v>
@@ -6864,13 +6864,13 @@
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>5.54</v>
+        <v>5.08</v>
       </c>
       <c r="K114" t="n">
-        <v>4.04</v>
+        <v>3.05</v>
       </c>
       <c r="L114" t="n">
-        <v>2.3</v>
+        <v>0.96</v>
       </c>
       <c r="M114" t="n">
         <v>0</v>
@@ -6893,13 +6893,13 @@
         <v>202</v>
       </c>
       <c r="D115" t="n">
-        <v>4.86</v>
+        <v>4.52</v>
       </c>
       <c r="E115" t="n">
-        <v>3.76</v>
+        <v>3.02</v>
       </c>
       <c r="F115" t="n">
-        <v>2.47</v>
+        <v>1.27</v>
       </c>
       <c r="G115" t="n">
         <v>0</v>
@@ -6911,13 +6911,13 @@
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>4.85</v>
+        <v>4.42</v>
       </c>
       <c r="K115" t="n">
-        <v>3.46</v>
+        <v>2.54</v>
       </c>
       <c r="L115" t="n">
-        <v>1.85</v>
+        <v>0.57</v>
       </c>
       <c r="M115" t="n">
         <v>0</v>
@@ -6940,13 +6940,13 @@
         <v>203</v>
       </c>
       <c r="D116" t="n">
-        <v>5.29</v>
+        <v>4.88</v>
       </c>
       <c r="E116" t="n">
-        <v>3.95</v>
+        <v>3.12</v>
       </c>
       <c r="F116" t="n">
-        <v>2.47</v>
+        <v>1.31</v>
       </c>
       <c r="G116" t="n">
         <v>0</v>
@@ -6958,13 +6958,13 @@
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
       <c r="K116" t="n">
-        <v>2.55</v>
+        <v>1.62</v>
       </c>
       <c r="L116" t="n">
-        <v>1.06</v>
+        <v>0.3</v>
       </c>
       <c r="M116" t="n">
         <v>0</v>
@@ -6987,13 +6987,13 @@
         <v>204</v>
       </c>
       <c r="D117" t="n">
-        <v>5.79</v>
+        <v>5.34</v>
       </c>
       <c r="E117" t="n">
-        <v>4.43</v>
+        <v>3.48</v>
       </c>
       <c r="F117" t="n">
-        <v>2.86</v>
+        <v>1.31</v>
       </c>
       <c r="G117" t="n">
         <v>0</v>
@@ -7005,13 +7005,13 @@
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>5.37</v>
+        <v>4.82</v>
       </c>
       <c r="K117" t="n">
-        <v>3.75</v>
+        <v>2.59</v>
       </c>
       <c r="L117" t="n">
-        <v>1.88</v>
+        <v>0.37</v>
       </c>
       <c r="M117" t="n">
         <v>0</v>
@@ -7034,13 +7034,13 @@
         <v>199</v>
       </c>
       <c r="D118" t="n">
-        <v>5.12</v>
+        <v>4.75</v>
       </c>
       <c r="E118" t="n">
-        <v>4.09</v>
+        <v>3.31</v>
       </c>
       <c r="F118" t="n">
-        <v>2.88</v>
+        <v>1.62</v>
       </c>
       <c r="G118" t="n">
         <v>0</v>
@@ -7052,13 +7052,13 @@
         <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>4.95</v>
+        <v>4.51</v>
       </c>
       <c r="K118" t="n">
-        <v>3.68</v>
+        <v>2.73</v>
       </c>
       <c r="L118" t="n">
-        <v>2.2</v>
+        <v>0.72</v>
       </c>
       <c r="M118" t="n">
         <v>0</v>
@@ -7081,13 +7081,13 @@
         <v>205</v>
       </c>
       <c r="D119" t="n">
-        <v>5.06</v>
+        <v>4.58</v>
       </c>
       <c r="E119" t="n">
-        <v>3.65</v>
+        <v>2.78</v>
       </c>
       <c r="F119" t="n">
-        <v>2.25</v>
+        <v>1.09</v>
       </c>
       <c r="G119" t="n">
         <v>0</v>
@@ -7099,13 +7099,13 @@
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>4.6</v>
+        <v>4.06</v>
       </c>
       <c r="K119" t="n">
-        <v>3.08</v>
+        <v>1.98</v>
       </c>
       <c r="L119" t="n">
-        <v>1.44</v>
+        <v>0.41</v>
       </c>
       <c r="M119" t="n">
         <v>0</v>
@@ -7128,13 +7128,13 @@
         <v>206</v>
       </c>
       <c r="D120" t="n">
-        <v>4.65</v>
+        <v>4.36</v>
       </c>
       <c r="E120" t="n">
-        <v>3.77</v>
+        <v>3.13</v>
       </c>
       <c r="F120" t="n">
-        <v>2.73</v>
+        <v>1.71</v>
       </c>
       <c r="G120" t="n">
         <v>0</v>
@@ -7146,13 +7146,13 @@
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>4.62</v>
+        <v>4.27</v>
       </c>
       <c r="K120" t="n">
-        <v>3.53</v>
+        <v>2.77</v>
       </c>
       <c r="L120" t="n">
-        <v>2.25</v>
+        <v>1.01</v>
       </c>
       <c r="M120" t="n">
         <v>0</v>
@@ -7175,13 +7175,13 @@
         <v>207</v>
       </c>
       <c r="D121" t="n">
-        <v>3.87</v>
+        <v>3.55</v>
       </c>
       <c r="E121" t="n">
-        <v>2.95</v>
+        <v>2.27</v>
       </c>
       <c r="F121" t="n">
-        <v>1.89</v>
+        <v>0.87</v>
       </c>
       <c r="G121" t="n">
         <v>0</v>
@@ -7193,13 +7193,13 @@
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>3.35</v>
+        <v>3.01</v>
       </c>
       <c r="K121" t="n">
-        <v>2.47</v>
+        <v>1.74</v>
       </c>
       <c r="L121" t="n">
-        <v>1.45</v>
+        <v>0.27</v>
       </c>
       <c r="M121" t="n">
         <v>0</v>
@@ -7222,13 +7222,13 @@
         <v>209</v>
       </c>
       <c r="D122" t="n">
-        <v>3.53</v>
+        <v>3</v>
       </c>
       <c r="E122" t="n">
-        <v>3.04</v>
+        <v>1.91</v>
       </c>
       <c r="F122" t="n">
-        <v>2.48</v>
+        <v>0.78</v>
       </c>
       <c r="G122" t="n">
         <v>0</v>
@@ -7240,16 +7240,16 @@
         <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>1.81</v>
+        <v>1.41</v>
       </c>
       <c r="K122" t="n">
-        <v>0.9</v>
+        <v>0.31</v>
       </c>
       <c r="L122" t="n">
-        <v>0.24</v>
+        <v>0.01</v>
       </c>
       <c r="M122" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="N122" t="n">
         <v>0</v>
@@ -7269,13 +7269,13 @@
         <v>210</v>
       </c>
       <c r="D123" t="n">
-        <v>3.41</v>
+        <v>2.89</v>
       </c>
       <c r="E123" t="n">
-        <v>2.92</v>
+        <v>1.79</v>
       </c>
       <c r="F123" t="n">
-        <v>2.34</v>
+        <v>0.69</v>
       </c>
       <c r="G123" t="n">
         <v>0</v>
@@ -7287,16 +7287,16 @@
         <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>2.22</v>
+        <v>1.95</v>
       </c>
       <c r="K123" t="n">
-        <v>1.53</v>
+        <v>0.98</v>
       </c>
       <c r="L123" t="n">
-        <v>0.78</v>
+        <v>0.27</v>
       </c>
       <c r="M123" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N123" t="n">
         <v>0</v>
@@ -7316,13 +7316,13 @@
         <v>211</v>
       </c>
       <c r="D124" t="n">
-        <v>2.42</v>
+        <v>2.07</v>
       </c>
       <c r="E124" t="n">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="F124" t="n">
-        <v>0.46</v>
+        <v>0.03</v>
       </c>
       <c r="G124" t="n">
         <v>0</v>
@@ -7334,13 +7334,13 @@
         <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>2.04</v>
+        <v>1.66</v>
       </c>
       <c r="K124" t="n">
-        <v>1.18</v>
+        <v>0.43</v>
       </c>
       <c r="L124" t="n">
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
       <c r="M124" t="n">
         <v>0</v>
@@ -7381,13 +7381,13 @@
         <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>2.17</v>
+        <v>1.81</v>
       </c>
       <c r="K125" t="n">
-        <v>1.26</v>
+        <v>0.55</v>
       </c>
       <c r="L125" t="n">
-        <v>0.32</v>
+        <v>0.01</v>
       </c>
       <c r="M125" t="n">
         <v>0</v>
@@ -7410,13 +7410,13 @@
         <v>213</v>
       </c>
       <c r="D126" t="n">
-        <v>3.17</v>
+        <v>2.9</v>
       </c>
       <c r="E126" t="n">
-        <v>2.61</v>
+        <v>2.02</v>
       </c>
       <c r="F126" t="n">
-        <v>1.95</v>
+        <v>0.99</v>
       </c>
       <c r="G126" t="n">
         <v>0</v>
@@ -7428,16 +7428,16 @@
         <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>1.72</v>
+        <v>1.4</v>
       </c>
       <c r="K126" t="n">
-        <v>0.95</v>
+        <v>0.38</v>
       </c>
       <c r="L126" t="n">
-        <v>0.26</v>
+        <v>0.01</v>
       </c>
       <c r="M126" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N126" t="n">
         <v>0</v>
@@ -7457,13 +7457,13 @@
         <v>208</v>
       </c>
       <c r="D127" t="n">
-        <v>2.56</v>
+        <v>2.24</v>
       </c>
       <c r="E127" t="n">
-        <v>1.68</v>
+        <v>0.98</v>
       </c>
       <c r="F127" t="n">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="G127" t="n">
         <v>0</v>
@@ -7475,13 +7475,13 @@
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>1.9</v>
+        <v>1.58</v>
       </c>
       <c r="K127" t="n">
-        <v>1.09</v>
+        <v>0.47</v>
       </c>
       <c r="L127" t="n">
-        <v>0.28</v>
+        <v>0.01</v>
       </c>
       <c r="M127" t="n">
         <v>0</v>
@@ -7504,13 +7504,13 @@
         <v>215</v>
       </c>
       <c r="D128" t="n">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="E128" t="n">
-        <v>2.58</v>
+        <v>2.04</v>
       </c>
       <c r="F128" t="n">
-        <v>2.02</v>
+        <v>1.16</v>
       </c>
       <c r="G128" t="n">
         <v>0</v>
@@ -7522,16 +7522,16 @@
         <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>2.15</v>
+        <v>1.86</v>
       </c>
       <c r="K128" t="n">
-        <v>1.53</v>
+        <v>0.91</v>
       </c>
       <c r="L128" t="n">
-        <v>0.83</v>
+        <v>0.19</v>
       </c>
       <c r="M128" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N128" t="n">
         <v>0</v>
@@ -7551,13 +7551,13 @@
         <v>216</v>
       </c>
       <c r="D129" t="n">
-        <v>3.6</v>
+        <v>3.31</v>
       </c>
       <c r="E129" t="n">
-        <v>2.97</v>
+        <v>2.33</v>
       </c>
       <c r="F129" t="n">
-        <v>2.23</v>
+        <v>1.19</v>
       </c>
       <c r="G129" t="n">
         <v>0</v>
@@ -7569,13 +7569,13 @@
         <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>3.06</v>
+        <v>2.73</v>
       </c>
       <c r="K129" t="n">
-        <v>2.32</v>
+        <v>1.61</v>
       </c>
       <c r="L129" t="n">
-        <v>1.48</v>
+        <v>0.55</v>
       </c>
       <c r="M129" t="n">
         <v>0</v>
@@ -7598,13 +7598,13 @@
         <v>217</v>
       </c>
       <c r="D130" t="n">
-        <v>3.26</v>
+        <v>2.99</v>
       </c>
       <c r="E130" t="n">
-        <v>2.64</v>
+        <v>2.06</v>
       </c>
       <c r="F130" t="n">
-        <v>1.92</v>
+        <v>1</v>
       </c>
       <c r="G130" t="n">
         <v>0</v>
@@ -7616,13 +7616,13 @@
         <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>3.03</v>
+        <v>2.69</v>
       </c>
       <c r="K130" t="n">
-        <v>2.22</v>
+        <v>1.49</v>
       </c>
       <c r="L130" t="n">
-        <v>1.29</v>
+        <v>0.43</v>
       </c>
       <c r="M130" t="n">
         <v>0</v>
@@ -7645,13 +7645,13 @@
         <v>218</v>
       </c>
       <c r="D131" t="n">
-        <v>2.84</v>
+        <v>2.54</v>
       </c>
       <c r="E131" t="n">
-        <v>2.09</v>
+        <v>1.43</v>
       </c>
       <c r="F131" t="n">
-        <v>1.22</v>
+        <v>0.15</v>
       </c>
       <c r="G131" t="n">
         <v>0</v>
@@ -7663,16 +7663,16 @@
         <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>1.5</v>
+        <v>1.19</v>
       </c>
       <c r="K131" t="n">
-        <v>0.7</v>
+        <v>0.28</v>
       </c>
       <c r="L131" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="M131" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="N131" t="n">
         <v>0</v>
@@ -7710,16 +7710,16 @@
         <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>1.44</v>
+        <v>1.19</v>
       </c>
       <c r="K132" t="n">
-        <v>0.91</v>
+        <v>0.47</v>
       </c>
       <c r="L132" t="n">
-        <v>0.41</v>
+        <v>0.08</v>
       </c>
       <c r="M132" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="N132" t="n">
         <v>0</v>
@@ -7757,16 +7757,16 @@
         <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>1.47</v>
+        <v>1.2</v>
       </c>
       <c r="K133" t="n">
-        <v>0.86</v>
+        <v>0.38</v>
       </c>
       <c r="L133" t="n">
-        <v>0.28</v>
+        <v>0.02</v>
       </c>
       <c r="M133" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N133" t="n">
         <v>0</v>
@@ -7786,13 +7786,13 @@
         <v>214</v>
       </c>
       <c r="D134" t="n">
-        <v>3.1</v>
+        <v>2.84</v>
       </c>
       <c r="E134" t="n">
-        <v>2.58</v>
+        <v>2.02</v>
       </c>
       <c r="F134" t="n">
-        <v>1.96</v>
+        <v>1.07</v>
       </c>
       <c r="G134" t="n">
         <v>0</v>
@@ -7804,13 +7804,13 @@
         <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>2.79</v>
+        <v>2.45</v>
       </c>
       <c r="K134" t="n">
-        <v>2.04</v>
+        <v>1.31</v>
       </c>
       <c r="L134" t="n">
-        <v>1.17</v>
+        <v>0.25</v>
       </c>
       <c r="M134" t="n">
         <v>0</v>
